--- a/TestCases_API_CM.xlsx
+++ b/TestCases_API_CM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\Workspace_CM\RestAssured_CM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CEA536-6829-40F2-8014-4257F7C74D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AA9257-B767-43F0-95E9-4FFC657E8971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="100">
   <si>
     <t>TC_ID</t>
   </si>
@@ -453,6 +453,28 @@
   "recEndDate": "2025-02-24T09:15:40.974Z",
   "isDeleted": true
 }</t>
+  </si>
+  <si>
+    <t>Scan Data</t>
+  </si>
+  <si>
+    <t>Get all scan data's</t>
+  </si>
+  <si>
+    <t>Add Scan Date</t>
+  </si>
+  <si>
+    <t>/api/ScanData/GetScanData</t>
+  </si>
+  <si>
+    <t>{
+  "scanDate": "2025-02-26T09:26:36.434Z",
+  "regionId": "string",
+  "uploadedBy": "string"
+}</t>
+  </si>
+  <si>
+    <t>/api/ScanData/UploadScanDate</t>
   </si>
 </sst>
 </file>
@@ -616,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -639,25 +661,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,15 +694,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -707,6 +708,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -989,9 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K32"/>
+  <dimension ref="B2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34:K35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1009,53 +1018,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1064,10 +1073,10 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1080,12 +1089,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1094,10 +1103,10 @@
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -1110,12 +1119,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1124,10 +1133,10 @@
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1140,12 +1149,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1154,10 +1163,10 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -1170,12 +1179,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1184,10 +1193,10 @@
       <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1200,12 +1209,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1214,10 +1223,10 @@
       <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -1230,23 +1239,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="8" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+    <row r="10" spans="2:11" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1278,7 +1287,7 @@
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +1317,7 @@
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1347,7 @@
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1377,7 @@
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1398,7 +1407,7 @@
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1425,67 +1434,67 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="E17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="17">
+      <c r="I17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="13">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -1502,7 +1511,7 @@
       <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="4" t="s">
         <v>66</v>
       </c>
@@ -1532,14 +1541,14 @@
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -1559,10 +1568,10 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="285" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
@@ -1589,37 +1598,37 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="E24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -1636,7 +1645,7 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="4" t="s">
         <v>71</v>
       </c>
@@ -1666,14 +1675,14 @@
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="17" t="s">
+      <c r="E26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1693,10 +1702,10 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="255" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="4" t="s">
         <v>75</v>
       </c>
@@ -1723,37 +1732,37 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="17" t="s">
+      <c r="E29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -1770,7 +1779,7 @@
       <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="4" t="s">
         <v>72</v>
       </c>
@@ -1800,14 +1809,14 @@
       <c r="B31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="17" t="s">
+      <c r="E31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1830,7 +1839,7 @@
       <c r="B32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="4" t="s">
         <v>89</v>
       </c>
@@ -1856,8 +1865,81 @@
         <v>200</v>
       </c>
     </row>
+    <row r="33" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="4">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C19:C22"/>

--- a/TestCases_API_CM.xlsx
+++ b/TestCases_API_CM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\Workspace_CM\RestAssured_CM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AA9257-B767-43F0-95E9-4FFC657E8971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45660C-3EDA-4064-8A0B-DEF7A560839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
   <si>
     <t>TC_ID</t>
   </si>
@@ -475,6 +475,39 @@
   </si>
   <si>
     <t>/api/ScanData/UploadScanDate</t>
+  </si>
+  <si>
+    <t>Toggle Archive Building by Building Id</t>
+  </si>
+  <si>
+    <t>BuildingId, userId</t>
+  </si>
+  <si>
+    <t>Get Archived Buildings by Project Id</t>
+  </si>
+  <si>
+    <t>Remove Toggle Archive Building by Building Id</t>
+  </si>
+  <si>
+    <t>/api/Building/ToggleArchive/{buildingId}/{uid}</t>
+  </si>
+  <si>
+    <t>/api/Building/GetArchivedBuilding/{projectId}</t>
+  </si>
+  <si>
+    <t>/api/Building/RemoveToggleArchive/{buildingId}</t>
+  </si>
+  <si>
+    <t>BuildingId</t>
+  </si>
+  <si>
+    <t>Get TimeLine By ProjectId</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>/api/Project/GetTimelineByProjectId/{projectId}</t>
   </si>
 </sst>
 </file>
@@ -638,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,6 +730,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -709,10 +751,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -996,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K35"/>
+  <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34:K35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1046,7 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="50.42578125" style="2" customWidth="1"/>
@@ -1061,7 +1100,7 @@
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1093,7 +1132,7 @@
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
@@ -1123,7 +1162,7 @@
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="7" t="s">
         <v>49</v>
       </c>
@@ -1153,7 +1192,7 @@
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="7" t="s">
         <v>50</v>
       </c>
@@ -1183,7 +1222,7 @@
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7" t="s">
         <v>51</v>
       </c>
@@ -1213,7 +1252,7 @@
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
@@ -1255,7 +1294,7 @@
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1287,7 +1326,7 @@
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1317,7 +1356,7 @@
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1347,7 +1386,7 @@
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1377,7 +1416,7 @@
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1407,7 +1446,7 @@
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1437,7 +1476,7 @@
       <c r="B17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="13" t="s">
         <v>33</v>
       </c>
@@ -1463,488 +1502,608 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="285" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>11</v>
+      <c r="E20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="285" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="I21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="4" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="E22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="285" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="I22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="285" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="4" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="I23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="E28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="255" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="I28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="255" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="4" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="I29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="4" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="E30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="255" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="I30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="255" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="4" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="I31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C33" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="E33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="I33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="4" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="I34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="4" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="E35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="I35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="4" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="I36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C38" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="E38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="4" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="4">
+      <c r="I39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="4">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C20:C26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/TestCases_API_CM.xlsx
+++ b/TestCases_API_CM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssured_tool\Workspace_CM\RestAssured_CM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45660C-3EDA-4064-8A0B-DEF7A560839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109A1E2A-7119-48B3-AC50-7C4083B86E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:K18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
